--- a/Users/pbrown/_sandbox/Avionics Black Box.xlsx
+++ b/Users/pbrown/_sandbox/Avionics Black Box.xlsx
@@ -91,9 +91,6 @@
     <t>http://www.bigredbee.com/docs/BLGPS/beelineGPS_19.pdf</t>
   </si>
   <si>
-    <t>Digi XBee USB Interface Board - SMT Socket</t>
-  </si>
-  <si>
     <t>http://www.mouser.com/ds/2/111/xbibuss_referenceguide-794425.pdf</t>
   </si>
   <si>
@@ -134,6 +131,9 @@
   </si>
   <si>
     <t>http://www.bigredbee.com/zc139/index.php?main_page=popup_image&amp;pID=207</t>
+  </si>
+  <si>
+    <t>Digi XBee SX USB Interface Board - SMT Socket</t>
   </si>
 </sst>
 </file>
@@ -512,14 +512,14 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="5" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="64.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="90.140625" bestFit="1" customWidth="1"/>
@@ -541,7 +541,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -561,13 +561,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>22</v>
@@ -587,7 +587,7 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>23</v>
@@ -607,13 +607,13 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -624,16 +624,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -644,16 +644,16 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -670,7 +670,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>16</v>
@@ -693,7 +693,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>18</v>
@@ -710,10 +710,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
